--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2912386.505478296</v>
+        <v>3017325.735653662</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8534654.316519381</v>
+        <v>8550971.763580013</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>75.45713216103634</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>18.27745947762449</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>62.59098294598667</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.1974974666499</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58.99649157474376</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>312.7252982565395</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>24.59870295568126</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>146.9083821604494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167.5442597171369</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>36.95558184798389</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>186.6132027016546</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>169.2299870234509</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1525,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.11937003877873</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>111.5056986361882</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>140.176011444184</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>114.5006452705937</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>15.09910835322274</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>7.602497644399736</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>115.4863975071912</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2287,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695517</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2524,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>54.10799870228475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>97.98413062224054</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>242.7989073183574</v>
       </c>
       <c r="X28" t="n">
-        <v>49.33106662725162</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>27.34574348918529</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>73.57849775387122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>133.983849834638</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>93.02868377804674</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>71.05846343488115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.456478272008</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>32.84316668127781</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>170.70546349636</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417122</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4566717128375</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,16 +3957,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>100.5140508960355</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>105.8460632289448</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>189.7822042251789</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943747</v>
+        <v>861.3216348137582</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528559</v>
+        <v>492.3591178733465</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528559</v>
+        <v>492.3591178733465</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912105</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810566</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>861.3216348137582</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>775.9977502341333</v>
+        <v>412.4997346596882</v>
       </c>
       <c r="C4" t="n">
-        <v>607.0615673062264</v>
+        <v>412.4997346596882</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>262.3830952473525</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>114.4700016649593</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>114.4700016649593</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915318</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1514.197050312641</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U4" t="n">
-        <v>1514.197050312641</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V4" t="n">
-        <v>1514.197050312641</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="W4" t="n">
-        <v>1224.779880275681</v>
+        <v>861.2818647012357</v>
       </c>
       <c r="X4" t="n">
-        <v>996.7903293776634</v>
+        <v>633.2923138032183</v>
       </c>
       <c r="Y4" t="n">
-        <v>775.9977502341333</v>
+        <v>412.4997346596882</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213861</v>
+        <v>1500.22751757712</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>815.1145481251085</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214.4252100145765</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1286.037058082106</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>996.6198880451458</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="Y7" t="n">
-        <v>214.4252100145765</v>
+        <v>768.6303371471284</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>953.6440892486851</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>567.8558366504408</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>560.9103359012373</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>145.8378857462338</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866152</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X8" t="n">
-        <v>2862.546497866152</v>
+        <v>1698.509627919557</v>
       </c>
       <c r="Y8" t="n">
-        <v>2472.40716589034</v>
+        <v>1698.509627919557</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4911,16 +4913,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X9" t="n">
         <v>1317.51949026613</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.322087337517</v>
+        <v>627.5770176220484</v>
       </c>
       <c r="C10" t="n">
-        <v>527.322087337517</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1547.110479368192</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1258.007612493835</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1258.007612493835</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>1258.007612493835</v>
       </c>
       <c r="X10" t="n">
-        <v>879.9099329995254</v>
+        <v>1030.018061595818</v>
       </c>
       <c r="Y10" t="n">
-        <v>708.9705521677568</v>
+        <v>809.2254824522881</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177311</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1965.532750177311</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2389.155899672379</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>641.8461362382112</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>472.9099533103043</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="D13" t="n">
-        <v>322.7933138979686</v>
+        <v>583.3384263047943</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>435.4253327224012</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>288.5353852244908</v>
       </c>
       <c r="G13" t="n">
         <v>175.9033664000583</v>
@@ -5227,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5264,34 +5266,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5306,19 +5308,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>196.5408620426159</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1835.869149758807</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1581.18466155292</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612593</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.2946447138415</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3584617859347</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>747.3584617859347</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5710,13 +5712,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1418.449741049605</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138415</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5743,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3167.361685286662</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C22" t="n">
-        <v>2998.425502358755</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D22" t="n">
-        <v>2998.425502358755</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E22" t="n">
-        <v>2850.512408776362</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>2703.622461278451</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>2536.426361993331</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
         <v>2419.773435218391</v>
@@ -5935,25 +5937,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X22" t="n">
-        <v>3388.154264430192</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="Y22" t="n">
-        <v>3167.361685286662</v>
+        <v>3350.216519631757</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5980,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5993,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6014,7 +6016,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M24" t="n">
-        <v>3210.485548300425</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N24" t="n">
-        <v>3678.660617711126</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3175.341129796739</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C25" t="n">
-        <v>3006.404946868832</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D25" t="n">
-        <v>2856.288307456496</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874103</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3805.771724668526</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3577.782173770509</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y25" t="n">
-        <v>3356.989594626978</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L27" t="n">
-        <v>2876.560776129205</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M27" t="n">
-        <v>3473.939263755757</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>4101.537227310363</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>4101.537227310363</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3118.73869457197</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C28" t="n">
-        <v>2949.802511644064</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>2799.685872231728</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>2651.772778649335</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>2504.882831151424</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775287</v>
+        <v>1188.449944115125</v>
       </c>
       <c r="X28" t="n">
-        <v>3521.17973854574</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y28" t="n">
-        <v>3300.38715940221</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="29">
@@ -6461,10 +6463,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6500,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,25 +6545,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1022.872235754091</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C31" t="n">
-        <v>853.936052826184</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>1425.313279727861</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.520700584331</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2716.927329289434</v>
+        <v>448.1846595309957</v>
       </c>
       <c r="L33" t="n">
-        <v>3212.252935505192</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M33" t="n">
-        <v>3241.424143276705</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N33" t="n">
-        <v>3869.022106831312</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O33" t="n">
-        <v>4420.931837070599</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070599</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>945.402603663004</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C34" t="n">
-        <v>776.4664207350971</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D34" t="n">
-        <v>626.3497813227614</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E34" t="n">
-        <v>478.4366877403683</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>478.4366877403683</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>311.2405884552482</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>1050.315828159286</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,52 +6925,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1022.530292372932</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C37" t="n">
-        <v>853.5941094450255</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D37" t="n">
-        <v>703.4774700326898</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487567</v>
+        <v>1692.151506498379</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.37805728168</v>
+        <v>1437.467018292492</v>
       </c>
       <c r="W37" t="n">
-        <v>1652.96088724472</v>
+        <v>1148.049848255532</v>
       </c>
       <c r="X37" t="n">
-        <v>1424.971336346702</v>
+        <v>920.0602973575143</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.178757203172</v>
+        <v>699.2677182139842</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,19 +7256,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>315.9123021921482</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556945</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D40" t="n">
-        <v>415.5933575433587</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.632784380133</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>963.466348583466</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>3051.062654156519</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
-        <v>3051.062654156519</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>3678.660617711126</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950413</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445481</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356195</v>
+        <v>989.3306680894888</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>820.3944851615819</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>670.2778457492461</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W43" t="n">
-        <v>1332.172021309389</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X43" t="n">
-        <v>1332.172021309389</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.379442165859</v>
+        <v>1170.979132919728</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192511</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>3081.170977615668</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>2906.717948334541</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>2757.78353867329</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>2598.546083667834</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>2452.011525694719</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>2316.252859740627</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>2231.588527385793</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>2233.35591459056</v>
       </c>
       <c r="J45" t="n">
-        <v>2231.588527385791</v>
+        <v>2383.002557118215</v>
       </c>
       <c r="K45" t="n">
-        <v>2231.588527385791</v>
+        <v>2716.927329289435</v>
       </c>
       <c r="L45" t="n">
-        <v>2726.91413360155</v>
+        <v>2817.800993781638</v>
       </c>
       <c r="M45" t="n">
-        <v>3324.292621228102</v>
+        <v>2817.800993781638</v>
       </c>
       <c r="N45" t="n">
-        <v>3951.890584782709</v>
+        <v>3445.398957336245</v>
       </c>
       <c r="O45" t="n">
-        <v>4503.800315021996</v>
+        <v>3997.308687575532</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398593</v>
+        <v>4420.9318370706</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>4654.193497445483</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>4572.622366301208</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>4382.415660022982</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>4154.387578566167</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>3919.235470334424</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>3457.14661340069</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>3249.386314635736</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.8431516380886</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683283</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8298,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>224.3355197601774</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.7126101431586</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>54.01843965608063</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>146.0084629450601</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>31.93331737597549</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>271.4238899833683</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>172.2294825375376</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>24.80831533903267</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24373,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>232.4149996343062</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>43.72409101823357</v>
       </c>
       <c r="X28" t="n">
-        <v>176.3785887617855</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>152.486236692752</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>75.03697526434114</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24889,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.310863011585866</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>132.6809716109904</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>75.37549921168802</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>3.727996117236103</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>113.5907959652914</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.69998683092822</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>26.97729093373162</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>186.0089474405555</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>61.40075786968302</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>62.35543909864907</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>747476.8083880276</v>
+        <v>755795.5068895267</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>747476.8083880276</v>
+        <v>755795.5068895267</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>734971.155231178</v>
+        <v>734971.1552311779</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>734971.155231178</v>
+        <v>734971.1552311779</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>734971.155231178</v>
+        <v>734971.1552311779</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846404</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365054</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>686074.6097365053</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="L2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="I2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365055</v>
-      </c>
       <c r="M2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365059</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403374</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819063</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551194</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.614506921984933e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.23512810798</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>88524.2351281079</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810787</v>
+        <v>88524.235128108</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.20035675655</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756539</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756557</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-827317.4170324528</v>
+        <v>-646530.3253232265</v>
       </c>
       <c r="C6" t="n">
-        <v>501427.3286951396</v>
+        <v>468221.4582526935</v>
       </c>
       <c r="D6" t="n">
-        <v>501427.3286951397</v>
+        <v>308800.1882548021</v>
       </c>
       <c r="E6" t="n">
-        <v>250202.4177484866</v>
+        <v>250202.4177484863</v>
       </c>
       <c r="F6" t="n">
-        <v>575614.879555842</v>
+        <v>575614.8795558416</v>
       </c>
       <c r="G6" t="n">
         <v>575614.8795558419</v>
       </c>
       <c r="H6" t="n">
-        <v>575614.8795558423</v>
+        <v>575614.8795558421</v>
       </c>
       <c r="I6" t="n">
+        <v>575614.8795558419</v>
+      </c>
+      <c r="J6" t="n">
+        <v>408009.7017458589</v>
+      </c>
+      <c r="K6" t="n">
+        <v>575614.8795558419</v>
+      </c>
+      <c r="L6" t="n">
+        <v>527320.9095476515</v>
+      </c>
+      <c r="M6" t="n">
+        <v>490559.8516203298</v>
+      </c>
+      <c r="N6" t="n">
+        <v>575614.8795558418</v>
+      </c>
+      <c r="O6" t="n">
         <v>575614.8795558421</v>
       </c>
-      <c r="J6" t="n">
-        <v>358083.6771585645</v>
-      </c>
-      <c r="K6" t="n">
-        <v>575614.8795558423</v>
-      </c>
-      <c r="L6" t="n">
-        <v>575614.8795558419</v>
-      </c>
-      <c r="M6" t="n">
-        <v>490559.8516203303</v>
-      </c>
-      <c r="N6" t="n">
-        <v>575614.8795558419</v>
-      </c>
-      <c r="O6" t="n">
-        <v>575614.879555842</v>
-      </c>
       <c r="P6" t="n">
-        <v>575614.8795558418</v>
+        <v>575614.8795558421</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>289.8157596099712</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>363.6529105946373</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27537,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>103.7156170988175</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3514518095193182</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>323.7373500887368</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>52.54759351446808</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>227.5389403681467</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>71.67627119164536</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>215.1895819463437</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>257.6521825393366</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>32.93574657451455</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>49.35466632864384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
     </row>
     <row r="36">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,7 +31852,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -31859,7 +31861,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>305.5427724581384</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>558.3177848342789</v>
+        <v>556.7959610899857</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,10 +32314,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32324,19 +32326,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>558.3177848342784</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32546,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>592.1874941409601</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>585.3368606136115</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,19 +32788,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>604.2458225991924</v>
+        <v>453.7122424932254</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32809,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>493.6049778318539</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>189.0011860882997</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>344.6306853939237</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>171.5999003578894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>301.6445156724565</v>
+        <v>314.3020503687023</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>211.0222436375122</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>318.3985571819317</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +34000,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>476.0648089385462</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>396.9700886943664</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760382</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>546.4575832202785</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>522.0158803980275</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,7 +35500,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.5609983721169</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>426.9760727509455</v>
+        <v>425.4542490066523</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35972,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>426.9760727509451</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>453.6331143610859</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>442.7406161691671</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>472.904110515859</v>
+        <v>322.3705304098921</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36457,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>359.6305704175236</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>57.65947400496642</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>206.7892464195648</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>29.46586643587111</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>159.048271228012</v>
+        <v>171.7058059242579</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>73.18080466315317</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>176.2645232599133</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>337.510429158672</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396164</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3013230.094148897</v>
+        <v>3014990.624451682</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>286.5888679426066</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>14.22077028990274</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>120.3332554667404</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>111.832395284793</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>229.110663511568</v>
+        <v>0.816509585151988</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>64.50612826256146</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>147.0290144562274</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>201.66221878632</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>31.73783249628705</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>101.4112203454774</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206812</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>104.8913819999783</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881259</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053468</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634824</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>27.02919805176154</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>101.9154861872836</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428172</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701319</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766857</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>103.8784673763403</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>58.24570521548602</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>34.21058558914873</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>728.3028554854573</v>
+        <v>505.1927996570369</v>
       </c>
       <c r="C2" t="n">
-        <v>359.3403385450455</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="D2" t="n">
-        <v>69.85663355251364</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251364</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2547.97491396591</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2339.229272571735</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2339.229272571735</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>2008.166385228164</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1655.39772995805</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.042027525391</v>
+        <v>1281.93197169697</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.902695549579</v>
+        <v>891.7926397211587</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>801.9449557744474</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>496.1664670606423</v>
+        <v>172.7955294637004</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
         <v>51.24678656800311</v>
@@ -4524,16 +4524,16 @@
         <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>1234.36576713915</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9485971021898</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X4" t="n">
-        <v>716.9590462041724</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="Y4" t="n">
-        <v>496.1664670606423</v>
+        <v>354.4439942939401</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>725.9208939613231</v>
+        <v>474.7217947496369</v>
       </c>
       <c r="C5" t="n">
-        <v>725.9208939613231</v>
+        <v>474.7217947496369</v>
       </c>
       <c r="D5" t="n">
-        <v>367.6551953545726</v>
+        <v>474.7217947496369</v>
       </c>
       <c r="E5" t="n">
-        <v>367.6551953545726</v>
+        <v>474.7217947496369</v>
       </c>
       <c r="F5" t="n">
-        <v>360.7096946053692</v>
+        <v>467.7762940004334</v>
       </c>
       <c r="G5" t="n">
-        <v>349.0453483700621</v>
+        <v>52.07154372472229</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532451</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.894479532451</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>1876.125824262336</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>1502.660066001257</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y5" t="n">
-        <v>1112.520734025445</v>
+        <v>861.3216348137587</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049859</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4725,25 +4725,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.288414758779</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1281.871244721818</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1053.881693823801</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>833.0891146802707</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2196.097994299123</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1827.135477358712</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1468.869778751961</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1083.081526153717</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>672.0956213641095</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>257.023171209106</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4807,13 +4807,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4843,13 +4843,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X8" t="n">
-        <v>2972.837166339057</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2582.697834363245</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>529.0179941377679</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="C10" t="n">
-        <v>529.0179941377679</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4992,22 +4992,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1703.550247252403</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1703.550247252403</v>
+        <v>1633.173087808776</v>
       </c>
       <c r="V10" t="n">
-        <v>1448.865759046516</v>
+        <v>1378.488599602889</v>
       </c>
       <c r="W10" t="n">
-        <v>1159.448589009555</v>
+        <v>1089.071429565929</v>
       </c>
       <c r="X10" t="n">
-        <v>931.4590381115378</v>
+        <v>861.0818786679114</v>
       </c>
       <c r="Y10" t="n">
-        <v>710.6664589680076</v>
+        <v>640.2892995243812</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516141</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>407.9027098310022</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310022</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310022</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,37 +5342,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273896</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516141</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>842.6091804069459</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793924</v>
+        <v>1470.207143961553</v>
       </c>
       <c r="O15" t="n">
-        <v>2223.769289033211</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,64 +5503,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5652,55 +5652,55 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
         <v>2035.268256189238</v>
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5767,37 +5767,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245714</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>776.17510664033</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>813.3497091711304</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192512</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6217,40 +6217,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6539,7 +6539,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6551,10 +6551,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6600,22 +6600,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6624,10 +6624,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6691,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075805</v>
@@ -6715,25 +6715,25 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6767,31 +6767,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273896</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
         <v>402.7245934908938</v>
@@ -6849,22 +6849,22 @@
         <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057737</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,37 +6925,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7013,7 +7013,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7025,10 +7025,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7098,10 +7098,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,13 +7119,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
         <v>1746.193029533436</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E40" t="n">
-        <v>365.9405071576781</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,7 +7484,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
         <v>95.58405025273902</v>
@@ -7499,10 +7499,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>210.4595134598044</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7645,31 +7645,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192764</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111731</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,7 +7724,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C46" t="n">
-        <v>407.9027098310023</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D46" t="n">
         <v>407.9027098310023</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>265.0304328515144</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515139</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>62.35543909864951</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194215</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194146</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>41.54258064659095</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>110.003342051665</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>734971.155231178</v>
+        <v>734971.1552311779</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099822</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081906</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.641531071072677e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,40 +26423,40 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810786</v>
+        <v>88524.23512810784</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756672</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756715</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
+        <v>9337.200356756508</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="J4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="I4" t="n">
-        <v>9337.200356756646</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9337.200356756672</v>
-      </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756726</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756653</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26472,7 +26472,7 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26484,7 +26484,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-646530.3253232264</v>
+        <v>-646530.3253232266</v>
       </c>
       <c r="C6" t="n">
-        <v>468221.4582526937</v>
+        <v>468221.4582526936</v>
       </c>
       <c r="D6" t="n">
-        <v>308800.1882548019</v>
+        <v>308800.1882548017</v>
       </c>
       <c r="E6" t="n">
-        <v>249855.03849413</v>
+        <v>250167.679823051</v>
       </c>
       <c r="F6" t="n">
-        <v>575267.5003014849</v>
+        <v>575580.141630406</v>
       </c>
       <c r="G6" t="n">
-        <v>575267.5003014848</v>
+        <v>575580.141630406</v>
       </c>
       <c r="H6" t="n">
-        <v>575267.5003014849</v>
+        <v>575580.1416304065</v>
       </c>
       <c r="I6" t="n">
-        <v>575267.5003014847</v>
+        <v>575580.1416304063</v>
       </c>
       <c r="J6" t="n">
-        <v>407662.3224915024</v>
+        <v>407974.963820424</v>
       </c>
       <c r="K6" t="n">
-        <v>575267.5003014848</v>
+        <v>575580.1416304063</v>
       </c>
       <c r="L6" t="n">
-        <v>526973.5302932942</v>
+        <v>527286.1716222157</v>
       </c>
       <c r="M6" t="n">
-        <v>490212.4723659734</v>
+        <v>490525.1136948944</v>
       </c>
       <c r="N6" t="n">
-        <v>575267.5003014849</v>
+        <v>575580.1416304061</v>
       </c>
       <c r="O6" t="n">
-        <v>575267.5003014849</v>
+        <v>575580.141630406</v>
       </c>
       <c r="P6" t="n">
-        <v>575267.5003014849</v>
+        <v>575580.1416304061</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26798,19 +26798,19 @@
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27038,19 +27038,19 @@
         <v>640.5848321000383</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>68.0941736780764</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>109.2314451088916</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>46.91356563188748</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>140.305248039035</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>71.90788905083741</v>
+        <v>300.2020429772534</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>187.6315150612666</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>147.5787499310931</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>168.0688818921491</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>187.8111167798822</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>184.8006178601355</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28095,13 +28095,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.736439038534721e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.728484105318785e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.012701199622825e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>533.6019216797993</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>572.868299221486</v>
       </c>
       <c r="P15" t="n">
-        <v>230.9747494877456</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543365</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,46 +32861,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,22 +33262,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,22 +33499,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669242</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,22 +33736,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34780,10 +34780,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>562.7107934893646</v>
+        <v>508.713261862006</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34795,7 +34795,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750462</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>430.2720547770417</v>
       </c>
       <c r="P15" t="n">
-        <v>97.00034207341533</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113578</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997754</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902966</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113578</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924747</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
